--- a/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
+++ b/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="0" windowWidth="9660" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="9360" yWindow="0" windowWidth="26580" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>Imperial Highway west</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t> -118.140428</t>
   </si>
 </sst>
 </file>
@@ -455,11 +452,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier"/>
     </font>
     <font>
       <u/>
@@ -478,18 +470,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,21 +505,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -847,155 +865,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="2">
+        <v>33.931432000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-118.40397400000001</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2">
+        <v>33.931361000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-118.396164</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="2">
+        <v>33.931165</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-118.387473</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="2">
+        <v>33.930008000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-118.370007</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2">
+        <v>33.930204000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-118.368419</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2">
+        <v>33.933729</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-118.352605</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="2">
+        <v>33.929989999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-118.34385</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="2">
+        <v>33.925237000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-118.32658000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="2">
+        <v>33.928797000000003</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-118.29173299999999</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="2">
+        <v>33.928797000000003</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-118.28066</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="2">
+        <v>33.928387999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-118.254329</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="2">
+        <v>33.928387999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-118.209976</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="2">
+        <v>33.924934</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-118.209976</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="2">
+        <v>33.912897000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-118.180042</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="2">
+        <v>33.911152000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-118.168927</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="18">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="2">
+        <v>33.911971000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-118.159936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2">
         <v>33.91328</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="2">
+        <v>-118.140428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2">
@@ -1005,8 +1089,8 @@
         <v>-118.12542000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
@@ -1016,8 +1100,8 @@
         <v>-118.104692</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="4">
@@ -1028,7 +1112,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3">
@@ -1039,637 +1123,878 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>10</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C30" s="2">
+        <v>34.011422000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-118.49547</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C31" s="2">
+        <v>34.012774</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-118.48933</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="2">
+        <v>34.014819000000003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-118.485857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="2">
+        <v>34.023338000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-118.473798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="2">
+        <v>34.024636000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-118.469356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="2">
+        <v>34.027766</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-118.455172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="2">
+        <v>34.028281999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-118.44925000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="2">
+        <v>34.031376000000002</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-118.43358600000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="C38" s="2">
+        <v>34.031767000000002</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-118.41702100000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="C39" s="2">
+        <v>34.029668999999998</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-118.40318000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="C40" s="2">
+        <v>34.030664999999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-118.391379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="2">
+        <v>34.036942000000003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-118.377431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="C42" s="2">
+        <v>34.035359</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-118.369535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="C43" s="2">
+        <v>34.034328000000002</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-118.350137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="C44" s="2">
+        <v>34.035181999999999</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-118.333786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="C45" s="2">
+        <v>34.036763999999998</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-118.31771500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="2">
+        <v>34.036977999999998</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-118.30052999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="C47" s="2">
+        <v>34.036977999999998</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-118.291601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="2">
+        <v>34.037154999999998</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-118.28396499999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="C49" s="2">
+        <v>34.038257999999999</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-118.273966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="C50" s="2">
+        <v>34.034559000000002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-118.267117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+      <c r="C51" s="2">
+        <v>34.031998999999999</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-118.26239700000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+      <c r="C52" s="2">
+        <v>34.031252000000002</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-118.259972</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+      <c r="C53" s="2">
+        <v>34.029651000000001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-118.256174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="2">
+        <v>34.025970000000001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-118.249222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="C55" s="2">
+        <v>34.024619000000001</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-118.239287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+      <c r="C56" s="2">
+        <v>34.027979999999999</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-118.231111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+      <c r="C57" s="2">
+        <v>34.029668999999998</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-118.224653</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+      <c r="C58" s="2">
+        <v>34.033937000000002</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-118.220799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+      <c r="C59" s="2">
+        <v>34.043031999999997</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-118.217259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+      <c r="C60" s="2">
+        <v>34.049681999999997</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-118.21423299999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
+      <c r="C61" s="2">
+        <v>34.052002000000002</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-118.21405300000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
+      <c r="C62" s="2">
+        <v>34.056339000000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-118.213751</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="C63" s="2">
+        <v>34.055477000000003</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-118.211658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+      <c r="C64" s="2">
+        <v>34.055362000000002</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-118.200599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+      <c r="C65" s="2">
+        <v>34.055388000000001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-118.186156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+      <c r="C66" s="2">
+        <v>34.060578999999997</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-118.173507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>405</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
+++ b/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="26580" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="15240" yWindow="0" windowWidth="18060" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>Imperial Highway west</t>
   </si>
@@ -439,13 +439,16 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Eastbound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,6 +484,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -505,7 +514,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,8 +524,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,21 +537,2341 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="iwstar" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="4800600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="4572000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="4114800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="3657600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="3429000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="3200400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3378200" y="2971800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="2971800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="1600200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="1371600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="1143000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="914400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="685800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 18" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="457200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="Picture 19" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="6858000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="Picture 20" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="6629400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="Picture 21" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="7315200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="Picture 23" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="7543800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1048" name="Picture 24" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="8001000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1049" name="Picture 25" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="8229600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1051" name="Picture 27" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="8458200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1053" name="Picture 29" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="8686800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1056" name="Picture 32" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="9372600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1058" name="Picture 34" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="9601200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1059" name="Picture 35" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="10287000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1060" name="Picture 36" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="10287000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1062" name="Picture 38" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="10744200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1063" name="Picture 39" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="10972800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1064" name="Picture 40" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="11201400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1065" name="Picture 41" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="11658600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1066" name="Picture 42" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="11430000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1069" name="Picture 45" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="12115800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1071" name="Picture 47" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="12344400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1073" name="Picture 49" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="12573000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1074" name="Picture 50" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="12801600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1075" name="Picture 51" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="13030200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1077" name="Picture 53" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="13258800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1078" name="Picture 54" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="13944600"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1080" name="Picture 56" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="14173200"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1081" name="Picture 57" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="14401800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1082" name="Picture 58" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="14630400"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1084" name="Picture 60" descr="//maps.gstatic.com/mapfiles/transparent.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="14859000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,11 +3195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1552,207 +3885,399 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="19">
       <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="C72" s="7">
+        <v>34.026290000000003</v>
+      </c>
+      <c r="D72" s="7">
+        <v>-118.20836300000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19">
       <c r="A73" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="C73" s="7">
+        <v>34.027126000000003</v>
+      </c>
+      <c r="D73" s="7">
+        <v>-118.209715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19">
       <c r="A74" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="C74" s="7">
+        <v>34.029082000000002</v>
+      </c>
+      <c r="D74" s="7">
+        <v>-118.214382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19">
       <c r="A75" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="C75" s="7">
+        <v>34.034067999999998</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-118.221254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19">
       <c r="A76" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="C76" s="7">
+        <v>34.042898999999998</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-118.22113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19">
       <c r="A77" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="C77" s="7">
+        <v>34.047361000000002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-118.22141999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19">
       <c r="A78" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="C78" s="7">
+        <v>34.051716999999996</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-118.224006</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="C79" s="1">
+        <v>34.052481999999998</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-118.225594</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19">
       <c r="A80" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="C80" s="7">
+        <v>34.052658999999998</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-118.22671099999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="19">
       <c r="A81" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="C81" s="7">
+        <v>34.053673000000003</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-118.232449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="19">
       <c r="A82" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="C82" s="7">
+        <v>34.054125999999997</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-118.2379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="19">
       <c r="A83" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="C83" s="7">
+        <v>34.055112999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-118.23931899999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="19">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="C84" s="7">
+        <v>34.056379</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-118.241354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="C85" s="1">
+        <v>34.057031000000002</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-118.242379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="C86" s="1">
+        <v>34.059204000000001</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-118.24545000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="C87" s="1">
+        <v>34.062427999999997</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-118.24871400000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="19">
       <c r="A88" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="C88" s="7">
+        <v>34.069583000000002</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-118.260645</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="19">
       <c r="A89" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="C89" s="7">
+        <v>34.071942</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-118.266937</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="C90" s="1">
+        <v>34.074821</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-118.273117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="19">
       <c r="A91" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="C91" s="7">
+        <v>34.077238999999999</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-118.281485</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="19">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="C92" s="7">
+        <v>34.079309000000002</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-118.29159300000001</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="C93" s="1">
+        <v>34.083196999999998</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-118.298315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="C94" s="1">
+        <v>34.089140999999998</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-118.305577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="19">
       <c r="A95" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="C95" s="7">
+        <v>34.098008</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-118.314562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96" s="1">
+        <v>34.101762000000001</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-118.316762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="C97" s="1">
+        <v>34.104377999999997</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-118.322408</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="C98" s="1">
+        <v>34.105581999999998</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-118.32666999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="C99" s="1">
+        <v>34.107767000000003</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-118.33067200000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="19">
       <c r="A100" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="C100" s="7">
+        <v>34.111272</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-118.33525299999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="C101" s="1">
+        <v>34.130060999999998</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-118.34840699999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="C102" s="1">
+        <v>34.133051999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>-118.352368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="C103" s="1">
+        <v>34.137565000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>93</v>
       </c>
@@ -2001,7 +4526,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
+++ b/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="0" windowWidth="18060" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="32680" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,12 +484,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -514,7 +508,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -528,8 +522,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -537,21 +547,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3198,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3885,77 +3910,77 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="19">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="2">
         <v>34.026290000000003</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="2">
         <v>-118.20836300000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="2">
         <v>34.027126000000003</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="2">
         <v>-118.209715</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="19">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="2">
         <v>34.029082000000002</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="2">
         <v>-118.214382</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="19">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="2">
         <v>34.034067999999998</v>
       </c>
       <c r="D75" s="1">
         <v>-118.221254</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="19">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="2">
         <v>34.042898999999998</v>
       </c>
       <c r="D76" s="1">
         <v>-118.22113</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="19">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="2">
         <v>34.047361000000002</v>
       </c>
       <c r="D77" s="1">
         <v>-118.22141999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="19">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="2">
         <v>34.051716999999996</v>
       </c>
       <c r="D78" s="1">
@@ -3973,55 +3998,55 @@
         <v>-118.225594</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="2">
         <v>34.052658999999998</v>
       </c>
       <c r="D80" s="1">
         <v>-118.22671099999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="2">
         <v>34.053673000000003</v>
       </c>
       <c r="D81" s="1">
         <v>-118.232449</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="19">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="2">
         <v>34.054125999999997</v>
       </c>
       <c r="D82" s="1">
         <v>-118.2379</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="2">
         <v>34.055112999999999</v>
       </c>
       <c r="D83" s="1">
         <v>-118.23931899999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="2">
         <v>34.056379</v>
       </c>
       <c r="D84" s="1">
@@ -4061,22 +4086,22 @@
         <v>-118.24871400000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="19">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="2">
         <v>34.069583000000002</v>
       </c>
       <c r="D88" s="1">
         <v>-118.260645</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="19">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="2">
         <v>34.071942</v>
       </c>
       <c r="D89" s="1">
@@ -4094,22 +4119,22 @@
         <v>-118.273117</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="19">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="2">
         <v>34.077238999999999</v>
       </c>
       <c r="D91" s="1">
         <v>-118.281485</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="19">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="2">
         <v>34.079309000000002</v>
       </c>
       <c r="D92" s="1">
@@ -4141,11 +4166,11 @@
         <v>-118.305577</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="19">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="2">
         <v>34.098008</v>
       </c>
       <c r="D95" s="1">
@@ -4196,11 +4221,11 @@
         <v>-118.33067200000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="19">
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="2">
         <v>34.111272</v>
       </c>
       <c r="D100" s="1">
@@ -4236,130 +4261,283 @@
       <c r="C103" s="1">
         <v>34.137565000000002</v>
       </c>
+      <c r="D103" s="1">
+        <v>-118.362826</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="C104" s="1">
+        <v>34.139035</v>
+      </c>
+      <c r="D104" s="1">
+        <v>-118.364811</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="C105" s="1">
+        <v>34.147523999999997</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-118.37136599999999</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C106" s="1">
+        <v>34.154139000000001</v>
+      </c>
+      <c r="D106" s="1">
+        <v>-118.37696800000001</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C107" s="1">
+        <v>34.151173</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-118.375069</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="C108" s="1">
+        <v>34.154054000000002</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-118.37935899999999</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C109" s="2">
+        <v>34.154347000000001</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-118.396343</v>
+      </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="C110" s="1">
+        <v>34.156650999999997</v>
+      </c>
+      <c r="D110" s="1">
+        <v>-118.41387899999999</v>
+      </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C111" s="1">
+        <v>34.155549999999998</v>
+      </c>
+      <c r="D111" s="1">
+        <v>-118.43136699999999</v>
+      </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="C112" s="1">
+        <v>34.1569</v>
+      </c>
+      <c r="D112" s="1">
+        <v>-118.448807</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="C113" s="1">
+        <v>34.159323999999998</v>
+      </c>
+      <c r="D113" s="1">
+        <v>-118.46623099999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="C114" s="1">
+        <v>34.160317999999997</v>
+      </c>
+      <c r="D114" s="1">
+        <v>-118.469964</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="C115" s="1">
+        <v>34.164662999999997</v>
+      </c>
+      <c r="D115" s="1">
+        <v>-118.47398800000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="C116" s="1">
+        <v>34.165303000000002</v>
+      </c>
+      <c r="D116" s="1">
+        <v>-118.492205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="C117" s="1">
+        <v>34.170456000000001</v>
+      </c>
+      <c r="D117" s="1">
+        <v>-118.501335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="C118" s="1">
+        <v>34.171095000000001</v>
+      </c>
+      <c r="D118" s="1">
+        <v>-118.51880199999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="C119" s="1">
+        <v>34.173181</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-118.53628999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="C120" s="1">
+        <v>34.173499999999997</v>
+      </c>
+      <c r="D120" s="1">
+        <v>-118.553681</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="C121" s="1">
+        <v>34.172027</v>
+      </c>
+      <c r="D121" s="1">
+        <v>-118.571084</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="C122" s="1">
+        <v>34.167979000000003</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-118.58837800000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="C123" s="1">
+        <v>34.169061999999997</v>
+      </c>
+      <c r="D123" s="1">
+        <v>-118.59532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="C124" s="2">
+        <v>34.170690999999998</v>
+      </c>
+      <c r="D124" s="1">
+        <v>-118.60601699999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="C125" s="1">
+        <v>34.169176999999998</v>
+      </c>
+      <c r="D125" s="1">
+        <v>-118.612272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="C126" s="1">
+        <v>34.163527000000002</v>
+      </c>
+      <c r="D126" s="1">
+        <v>-118.62613899999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="C127" s="1">
+        <v>34.161982000000002</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-118.630285</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="C128" s="1">
+        <v>34.159519000000003</v>
+      </c>
+      <c r="D128" s="1">
+        <v>-118.637012</v>
       </c>
     </row>
     <row r="131" spans="1:4">

--- a/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
+++ b/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="32680" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="15400" yWindow="0" windowWidth="22560" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
   <si>
     <t>Imperial Highway west</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Eastbound</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,7 +553,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -563,6 +568,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -577,6 +583,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3223,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4555,150 +4562,333 @@
       <c r="A132" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C132" s="1">
+        <v>33.963000999999998</v>
+      </c>
+      <c r="D132" s="1">
+        <v>-118.369896</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="C133" s="1">
+        <v>33.971890000000002</v>
+      </c>
+      <c r="D133" s="1">
+        <v>-118.378319</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="C134" s="1">
+        <v>33.976019000000001</v>
+      </c>
+      <c r="D134" s="1">
+        <v>-118.386354</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="C135" s="1">
+        <v>33.982290999999996</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-118.394991</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="C136" s="1">
+        <v>33.988028999999997</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-118.399445</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="C137" s="1">
+        <v>33.991551999999999</v>
+      </c>
+      <c r="D137" s="1">
+        <v>-118.402297</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="C138" s="1">
+        <v>34.003247999999999</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-118.411546</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="C139" s="1">
+        <v>34.011705999999997</v>
+      </c>
+      <c r="D139" s="1">
+        <v>-118.418273</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C140" s="1">
+        <v>34.026890000000002</v>
+      </c>
+      <c r="D140" s="1">
+        <v>-118.430198</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C141" s="1">
+        <v>34.031458999999998</v>
+      </c>
+      <c r="D141" s="1">
+        <v>-118.433803</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="C142" s="1">
+        <v>34.035803999999999</v>
+      </c>
+      <c r="D142" s="1">
+        <v>-118.43820700000001</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="C143" s="1">
+        <v>34.047049999999999</v>
+      </c>
+      <c r="D143" s="1">
+        <v>-118.446865</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144" s="1">
+        <v>34.055664</v>
+      </c>
+      <c r="D144" s="1">
+        <v>-118.452246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="C145" s="1">
+        <v>34.067031999999998</v>
+      </c>
+      <c r="D145" s="1">
+        <v>-118.461735</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="C146" s="1">
+        <v>34.072906000000003</v>
+      </c>
+      <c r="D146" s="1">
+        <v>-118.466826</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="C147" s="1">
+        <v>34.077367000000002</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-118.469943</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="C148" s="2">
+        <v>34.095432000000002</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-118.476541</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="C149" s="1">
+        <v>34.124310999999999</v>
+      </c>
+      <c r="D149" s="1">
+        <v>-118.477389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="C150" s="1">
+        <v>34.151812</v>
+      </c>
+      <c r="D150" s="1">
+        <v>-118.468226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="C151" s="1">
+        <v>34.160451000000002</v>
+      </c>
+      <c r="D151" s="1">
+        <v>-118.469612</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="C152" s="1">
+        <v>34.172195000000002</v>
+      </c>
+      <c r="D152" s="1">
+        <v>-118.467759</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="C153" s="1">
+        <v>34.186556000000003</v>
+      </c>
+      <c r="D153" s="1">
+        <v>-118.47422899999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="C154" s="1">
+        <v>34.202699000000003</v>
+      </c>
+      <c r="D154" s="1">
+        <v>-118.473474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="C155" s="1">
+        <v>34.221606000000001</v>
+      </c>
+      <c r="D155" s="1">
+        <v>-118.473356</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="C156" s="1">
+        <v>34.235771999999997</v>
+      </c>
+      <c r="D156" s="1">
+        <v>-118.473174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="C157" s="1">
+        <v>34.25703</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-118.47238900000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="C158" s="1">
+        <v>34.266159000000002</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-118.47229799999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="C159" s="1">
+        <v>34.271704999999997</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-118.47217499999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="C160" s="1">
+        <v>34.279223000000002</v>
+      </c>
+      <c r="D160" s="1">
+        <v>-118.469793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="C161" s="1">
+        <v>34.293300000000002</v>
+      </c>
+      <c r="D161" s="1">
+        <v>-118.470061</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
+++ b/Assets/Offramp Coordinate Info/Offramp coordinates.xlsx
@@ -3230,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
